--- a/Code/Results/Cases/Case_9_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9824983919318472</v>
+        <v>0.9965419457814316</v>
       </c>
       <c r="D2">
-        <v>1.004473823379318</v>
+        <v>1.019151136735203</v>
       </c>
       <c r="E2">
-        <v>0.9913558853163592</v>
+        <v>1.003450327451024</v>
       </c>
       <c r="F2">
-        <v>0.9583996194030854</v>
+        <v>1.01512423235515</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038787124464537</v>
+        <v>1.04623565358964</v>
       </c>
       <c r="J2">
-        <v>1.005215478444011</v>
+        <v>1.018826580902894</v>
       </c>
       <c r="K2">
-        <v>1.015871180631814</v>
+        <v>1.030349960651664</v>
       </c>
       <c r="L2">
-        <v>1.002936974633783</v>
+        <v>1.014861802115467</v>
       </c>
       <c r="M2">
-        <v>0.9704706364341593</v>
+        <v>1.026376808251998</v>
       </c>
       <c r="N2">
-        <v>1.006642999723229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.020273431508816</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029447778653725</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03253023336338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9878983401614988</v>
+        <v>1.000758689508925</v>
       </c>
       <c r="D3">
-        <v>1.008521553905245</v>
+        <v>1.022047928301003</v>
       </c>
       <c r="E3">
-        <v>0.9957021634579197</v>
+        <v>1.006792573823085</v>
       </c>
       <c r="F3">
-        <v>0.9666183304517427</v>
+        <v>1.018358442132083</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040337934031675</v>
+        <v>1.047210015663159</v>
       </c>
       <c r="J3">
-        <v>1.00872443475585</v>
+        <v>1.021228693229426</v>
       </c>
       <c r="K3">
-        <v>1.019046548714747</v>
+        <v>1.03240626474237</v>
       </c>
       <c r="L3">
-        <v>1.006390332887396</v>
+        <v>1.017339273934035</v>
       </c>
       <c r="M3">
-        <v>0.9776969380758049</v>
+        <v>1.028761690709446</v>
       </c>
       <c r="N3">
-        <v>1.010156939155514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.02267895511038</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031335280184357</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033981558642871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9913001260195591</v>
+        <v>1.003430637525529</v>
       </c>
       <c r="D4">
-        <v>1.011070299086254</v>
+        <v>1.023883678923017</v>
       </c>
       <c r="E4">
-        <v>0.9984465369651305</v>
+        <v>1.008916251214829</v>
       </c>
       <c r="F4">
-        <v>0.971781921243175</v>
+        <v>1.020416783855687</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041297388746078</v>
+        <v>1.047811961979347</v>
       </c>
       <c r="J4">
-        <v>1.010929024306509</v>
+        <v>1.022746992499223</v>
       </c>
       <c r="K4">
-        <v>1.021036926489332</v>
+        <v>1.033702147523078</v>
       </c>
       <c r="L4">
-        <v>1.008563747147023</v>
+        <v>1.018908242971192</v>
       </c>
       <c r="M4">
-        <v>0.9822332824180411</v>
+        <v>1.030274886215035</v>
       </c>
       <c r="N4">
-        <v>1.012364659476204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.024199410539291</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032532887428054</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034898776109782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9927091547051565</v>
+        <v>1.004543928218046</v>
       </c>
       <c r="D5">
-        <v>1.012125627128829</v>
+        <v>1.024650360973909</v>
       </c>
       <c r="E5">
-        <v>0.9995847354302716</v>
+        <v>1.0098029299847</v>
       </c>
       <c r="F5">
-        <v>0.9739178573984963</v>
+        <v>1.021275472865804</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041690531309053</v>
+        <v>1.048060306945694</v>
       </c>
       <c r="J5">
-        <v>1.011840726327069</v>
+        <v>1.02337992105097</v>
       </c>
       <c r="K5">
-        <v>1.021858889915438</v>
+        <v>1.034242732407473</v>
       </c>
       <c r="L5">
-        <v>1.009463448819238</v>
+        <v>1.019562795081617</v>
       </c>
       <c r="M5">
-        <v>0.9841088110835673</v>
+        <v>1.03090538993626</v>
       </c>
       <c r="N5">
-        <v>1.013277656218207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.024833237922181</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.033031894268319</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035288237304318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9929445289638139</v>
+        <v>1.004733869626131</v>
       </c>
       <c r="D6">
-        <v>1.01230189262605</v>
+        <v>1.024783361412827</v>
       </c>
       <c r="E6">
-        <v>0.9997749532531266</v>
+        <v>1.009954848702671</v>
       </c>
       <c r="F6">
-        <v>0.9742745065095961</v>
+        <v>1.021420819059379</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041755951874099</v>
+        <v>1.048104052341561</v>
       </c>
       <c r="J6">
-        <v>1.011992937991762</v>
+        <v>1.023489385998096</v>
       </c>
       <c r="K6">
-        <v>1.021996050478328</v>
+        <v>1.034337769372891</v>
       </c>
       <c r="L6">
-        <v>1.009613709221017</v>
+        <v>1.019675761424216</v>
       </c>
       <c r="M6">
-        <v>0.9844219216430907</v>
+        <v>1.031012462534905</v>
       </c>
       <c r="N6">
-        <v>1.013430084040922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.024942858322087</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.033116635936106</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03536423698079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9913190350675298</v>
+        <v>1.003455662488705</v>
       </c>
       <c r="D7">
-        <v>1.011084463068433</v>
+        <v>1.023906743848574</v>
       </c>
       <c r="E7">
-        <v>0.998461805743789</v>
+        <v>1.008937696769173</v>
       </c>
       <c r="F7">
-        <v>0.9718105959164717</v>
+        <v>1.020432653630997</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041302681648267</v>
+        <v>1.047821808192686</v>
       </c>
       <c r="J7">
-        <v>1.01094126501475</v>
+        <v>1.022765324752749</v>
       </c>
       <c r="K7">
-        <v>1.021047966961533</v>
+        <v>1.033722042309833</v>
       </c>
       <c r="L7">
-        <v>1.008575823215881</v>
+        <v>1.01892646969556</v>
       </c>
       <c r="M7">
-        <v>0.9822584649524124</v>
+        <v>1.030287652971014</v>
       </c>
       <c r="N7">
-        <v>1.012376917567655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.02421776882672</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032542991572676</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034933087125513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9843430910741796</v>
+        <v>0.9979914172541663</v>
       </c>
       <c r="D8">
-        <v>1.005856783656627</v>
+        <v>1.020153790085605</v>
       </c>
       <c r="E8">
-        <v>0.9928392606174412</v>
+        <v>1.004599936463662</v>
       </c>
       <c r="F8">
-        <v>0.9612105031938654</v>
+        <v>1.016229909140058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039320547937275</v>
+        <v>1.046578796604326</v>
       </c>
       <c r="J8">
-        <v>1.006415425176849</v>
+        <v>1.01965804509715</v>
       </c>
       <c r="K8">
-        <v>1.016958001252022</v>
+        <v>1.031067513871998</v>
       </c>
       <c r="L8">
-        <v>1.004117110366441</v>
+        <v>1.015717957134274</v>
       </c>
       <c r="M8">
-        <v>0.9729428655096567</v>
+        <v>1.027194433754841</v>
       </c>
       <c r="N8">
-        <v>1.007844650518062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.0211060764776</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030094884242435</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03306069682541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9712930010042437</v>
+        <v>0.9878925357796882</v>
       </c>
       <c r="D9">
-        <v>0.9960717639914579</v>
+        <v>1.013213035834047</v>
       </c>
       <c r="E9">
-        <v>0.9823751221978794</v>
+        <v>0.9966290554375548</v>
       </c>
       <c r="F9">
-        <v>0.9412417868004194</v>
+        <v>1.008541506085888</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035474498238292</v>
+        <v>1.044154603285711</v>
       </c>
       <c r="J9">
-        <v>0.9979018573204205</v>
+        <v>1.013880205589475</v>
       </c>
       <c r="K9">
-        <v>1.00922889723033</v>
+        <v>1.026095317401418</v>
       </c>
       <c r="L9">
-        <v>0.9957607732439163</v>
+        <v>1.009777061655617</v>
       </c>
       <c r="M9">
-        <v>0.9553659916362328</v>
+        <v>1.021497506863243</v>
       </c>
       <c r="N9">
-        <v>0.9993189924187585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015320031775097</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.025586067501517</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029541752623534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9620055060381082</v>
+        <v>0.9809456340286865</v>
       </c>
       <c r="D10">
-        <v>0.9891104579087696</v>
+        <v>1.008450915404839</v>
       </c>
       <c r="E10">
-        <v>0.9749690902053358</v>
+        <v>0.9911950500727045</v>
       </c>
       <c r="F10">
-        <v>0.9268927145751206</v>
+        <v>1.003548524086912</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032647892075467</v>
+        <v>1.042425225278415</v>
       </c>
       <c r="J10">
-        <v>0.9918121102211593</v>
+        <v>1.009936185445665</v>
       </c>
       <c r="K10">
-        <v>1.003679149853383</v>
+        <v>1.022669244164364</v>
       </c>
       <c r="L10">
-        <v>0.9898054867083573</v>
+        <v>1.005725121482776</v>
       </c>
       <c r="M10">
-        <v>0.942720543941054</v>
+        <v>1.017854003054644</v>
       </c>
       <c r="N10">
-        <v>0.9932205971801127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011370410670298</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.022754849967467</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027136237218653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9578245307802986</v>
+        <v>0.9788093521063566</v>
       </c>
       <c r="D11">
-        <v>0.985978767487906</v>
+        <v>1.007024249181742</v>
       </c>
       <c r="E11">
-        <v>0.9716459052617424</v>
+        <v>0.9896412512355445</v>
       </c>
       <c r="F11">
-        <v>0.920388804186052</v>
+        <v>1.003962324932999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031355211486408</v>
+        <v>1.041986962784103</v>
       </c>
       <c r="J11">
-        <v>0.9890635639215812</v>
+        <v>1.00909105317253</v>
       </c>
       <c r="K11">
-        <v>1.001170038018913</v>
+        <v>1.021814903159303</v>
       </c>
       <c r="L11">
-        <v>0.9871231078121926</v>
+        <v>1.004761198549546</v>
       </c>
       <c r="M11">
-        <v>0.936986286638251</v>
+        <v>1.018809902471057</v>
       </c>
       <c r="N11">
-        <v>0.9904681476295266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010524078212397</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023954996418782</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.02656538407692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562456323569103</v>
+        <v>0.9783210038107645</v>
       </c>
       <c r="D12">
-        <v>0.9847965729908831</v>
+        <v>1.00671016856212</v>
       </c>
       <c r="E12">
-        <v>0.9703926619495034</v>
+        <v>0.9893409120026595</v>
       </c>
       <c r="F12">
-        <v>0.9179248438441653</v>
+        <v>1.004986342546891</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030864097966336</v>
+        <v>1.041931552177484</v>
       </c>
       <c r="J12">
-        <v>0.988024551649636</v>
+        <v>1.009072064803313</v>
       </c>
       <c r="K12">
-        <v>1.000220960442635</v>
+        <v>1.021709931656669</v>
       </c>
       <c r="L12">
-        <v>0.9861099575719121</v>
+        <v>1.00467521268005</v>
       </c>
       <c r="M12">
-        <v>0.9348136271080452</v>
+        <v>1.020018631578249</v>
       </c>
       <c r="N12">
-        <v>0.9894276598409787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010505062877517</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025242126806068</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026491164235967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565855171188996</v>
+        <v>0.9790776718135854</v>
       </c>
       <c r="D13">
-        <v>0.9850510376976556</v>
+        <v>1.007243923209274</v>
       </c>
       <c r="E13">
-        <v>0.970662364621839</v>
+        <v>0.9899918461863296</v>
       </c>
       <c r="F13">
-        <v>0.9184556274080855</v>
+        <v>1.006573221451993</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030969950067738</v>
+        <v>1.042179201978626</v>
       </c>
       <c r="J13">
-        <v>0.9882482641621964</v>
+        <v>1.009698707771767</v>
       </c>
       <c r="K13">
-        <v>1.000425333774169</v>
+        <v>1.022190072346114</v>
       </c>
       <c r="L13">
-        <v>0.9863280628681097</v>
+        <v>1.005268643744872</v>
       </c>
       <c r="M13">
-        <v>0.9352816696387597</v>
+        <v>1.021531948559398</v>
       </c>
       <c r="N13">
-        <v>0.9896516900509669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011132595750864</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026718595082089</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026828126026719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9576945589213365</v>
+        <v>0.9801585894026571</v>
       </c>
       <c r="D14">
-        <v>0.9858814415008236</v>
+        <v>1.007993784435736</v>
       </c>
       <c r="E14">
-        <v>0.9715427052130092</v>
+        <v>0.9908674282469805</v>
       </c>
       <c r="F14">
-        <v>0.9201861419989568</v>
+        <v>1.007910270446861</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031314843243381</v>
+        <v>1.042485572980742</v>
       </c>
       <c r="J14">
-        <v>0.9889780557805952</v>
+        <v>1.010417612454453</v>
       </c>
       <c r="K14">
-        <v>1.001091942576438</v>
+        <v>1.02278328119306</v>
       </c>
       <c r="L14">
-        <v>0.9870397106611918</v>
+        <v>1.005980849341562</v>
       </c>
       <c r="M14">
-        <v>0.9368075890736776</v>
+        <v>1.022701311951209</v>
       </c>
       <c r="N14">
-        <v>0.9903825180571724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011852521360659</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027817929151773</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027248993304331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9583743823617726</v>
+        <v>0.9807066164030492</v>
       </c>
       <c r="D15">
-        <v>0.9863905285774569</v>
+        <v>1.008372656798901</v>
       </c>
       <c r="E15">
-        <v>0.9720825681079782</v>
+        <v>0.9913007716196004</v>
       </c>
       <c r="F15">
-        <v>0.9212458493830533</v>
+        <v>1.008408517367875</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031525871747737</v>
+        <v>1.042632119974928</v>
       </c>
       <c r="J15">
-        <v>0.9894252669881465</v>
+        <v>1.010748550027167</v>
       </c>
       <c r="K15">
-        <v>1.001500362012317</v>
+        <v>1.023067325661603</v>
       </c>
       <c r="L15">
-        <v>0.9874759159991546</v>
+        <v>1.006315777037109</v>
       </c>
       <c r="M15">
-        <v>0.9377419764191186</v>
+        <v>1.02310252821159</v>
       </c>
       <c r="N15">
-        <v>0.990830364355934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012183928902685</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028172899301284</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027455760172196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9622794636222434</v>
+        <v>0.9834882876565243</v>
       </c>
       <c r="D16">
-        <v>0.9893157162196472</v>
+        <v>1.010279116390844</v>
       </c>
       <c r="E16">
-        <v>0.9751870733617579</v>
+        <v>0.9934574179198945</v>
       </c>
       <c r="F16">
-        <v>0.9273178676761491</v>
+        <v>1.01025491878917</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032732182871168</v>
+        <v>1.04333088162827</v>
       </c>
       <c r="J16">
-        <v>0.9919920619439678</v>
+        <v>1.012293747929101</v>
       </c>
       <c r="K16">
-        <v>1.003843342092469</v>
+        <v>1.024429085679848</v>
       </c>
       <c r="L16">
-        <v>0.9899812219897213</v>
+        <v>1.00790878568229</v>
       </c>
       <c r="M16">
-        <v>0.943095341675</v>
+        <v>1.024405312292209</v>
       </c>
       <c r="N16">
-        <v>0.9934008044550079</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013731321162876</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029163563783365</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028421788146462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9646850297271935</v>
+        <v>0.9850656019354072</v>
       </c>
       <c r="D17">
-        <v>0.9911183010942225</v>
+        <v>1.011356001436675</v>
       </c>
       <c r="E17">
-        <v>0.9771023733053843</v>
+        <v>0.994663292644118</v>
       </c>
       <c r="F17">
-        <v>0.9310459099011887</v>
+        <v>1.010977474234435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033470045771223</v>
+        <v>1.043706158139549</v>
       </c>
       <c r="J17">
-        <v>0.9935713792211857</v>
+        <v>1.013110036306088</v>
       </c>
       <c r="K17">
-        <v>1.005283871669814</v>
+        <v>1.025167806049617</v>
       </c>
       <c r="L17">
-        <v>0.9915241563687031</v>
+        <v>1.008765545209506</v>
       </c>
       <c r="M17">
-        <v>0.9463815574538033</v>
+        <v>1.02479572783493</v>
       </c>
       <c r="N17">
-        <v>0.9949823645439099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014548768762988</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029341955692794</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028946711996503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9660729159280599</v>
+        <v>0.9857097099411911</v>
       </c>
       <c r="D18">
-        <v>0.9921584869049607</v>
+        <v>1.011782934003529</v>
       </c>
       <c r="E18">
-        <v>0.9782084135574105</v>
+        <v>0.9951191367144538</v>
       </c>
       <c r="F18">
-        <v>0.9331926995465198</v>
+        <v>1.01062807494972</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033893842166507</v>
+        <v>1.043822176583153</v>
       </c>
       <c r="J18">
-        <v>0.9944818921126972</v>
+        <v>1.013323674116837</v>
       </c>
       <c r="K18">
-        <v>1.006113961932078</v>
+        <v>1.025401331690427</v>
       </c>
       <c r="L18">
-        <v>0.9924142075652413</v>
+        <v>1.009022655452827</v>
       </c>
       <c r="M18">
-        <v>0.9482736761167777</v>
+        <v>1.024265841538777</v>
       </c>
       <c r="N18">
-        <v>0.9958941704681646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014762709963933</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028682852945997</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029100074218453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665436197997971</v>
+        <v>0.9854765676822593</v>
       </c>
       <c r="D19">
-        <v>0.9925112956358452</v>
+        <v>1.011605886599829</v>
       </c>
       <c r="E19">
-        <v>0.9785836978378107</v>
+        <v>0.9948681904876147</v>
       </c>
       <c r="F19">
-        <v>0.9339201238750308</v>
+        <v>1.009198257478549</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03403724645792</v>
+        <v>1.043698250294269</v>
       </c>
       <c r="J19">
-        <v>0.9947905798017204</v>
+        <v>1.012961798363457</v>
       </c>
       <c r="K19">
-        <v>1.006395313078345</v>
+        <v>1.02516376449289</v>
       </c>
       <c r="L19">
-        <v>0.9927160446636601</v>
+        <v>1.008711074927215</v>
       </c>
       <c r="M19">
-        <v>0.9489147624783062</v>
+        <v>1.022796381627491</v>
       </c>
       <c r="N19">
-        <v>0.9962032965291132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014400320305475</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027191194268974</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028938562085439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.964428524920053</v>
+        <v>0.9827773403463462</v>
       </c>
       <c r="D20">
-        <v>0.9909260714895061</v>
+        <v>1.009718823573317</v>
       </c>
       <c r="E20">
-        <v>0.9768980396497808</v>
+        <v>0.992630169089305</v>
       </c>
       <c r="F20">
-        <v>0.9306488230842026</v>
+        <v>1.00486530043932</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033391565641014</v>
+        <v>1.042896088892368</v>
       </c>
       <c r="J20">
-        <v>0.9934030466555703</v>
+        <v>1.010988699204327</v>
       </c>
       <c r="K20">
-        <v>1.005130373846602</v>
+        <v>1.023592905123163</v>
       </c>
       <c r="L20">
-        <v>0.9913596481331058</v>
+        <v>1.006803857906452</v>
       </c>
       <c r="M20">
-        <v>0.9460315559570108</v>
+        <v>1.018823135510778</v>
       </c>
       <c r="N20">
-        <v>0.9948137929267438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012424419119222</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.023511078631529</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.02783185205564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9573687054397766</v>
+        <v>0.9773551819570923</v>
       </c>
       <c r="D21">
-        <v>0.9856374425234932</v>
+        <v>1.005995887343364</v>
       </c>
       <c r="E21">
-        <v>0.9712839995662834</v>
+        <v>0.9883807082426688</v>
       </c>
       <c r="F21">
-        <v>0.9196779157369948</v>
+        <v>1.000606367784193</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031213588599182</v>
+        <v>1.041497268741536</v>
       </c>
       <c r="J21">
-        <v>0.9887636607122531</v>
+        <v>1.007831161278016</v>
       </c>
       <c r="K21">
-        <v>1.000896124370826</v>
+        <v>1.020864549261793</v>
       </c>
       <c r="L21">
-        <v>0.9868306222459163</v>
+        <v>1.003585606781055</v>
       </c>
       <c r="M21">
-        <v>0.9363594560442676</v>
+        <v>1.015576261441367</v>
       </c>
       <c r="N21">
-        <v>0.9901678185232413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009262397126881</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.02089968290621</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025906037969641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9527789402758569</v>
+        <v>0.9739143081919217</v>
       </c>
       <c r="D22">
-        <v>0.9822018964882427</v>
+        <v>1.003633354959796</v>
       </c>
       <c r="E22">
-        <v>0.967644274084788</v>
+        <v>0.9856972876218609</v>
       </c>
       <c r="F22">
-        <v>0.9124989904434531</v>
+        <v>0.998041119083427</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029780462361482</v>
+        <v>1.040597757299131</v>
       </c>
       <c r="J22">
-        <v>0.9857413228958196</v>
+        <v>1.005843713736808</v>
       </c>
       <c r="K22">
-        <v>0.9981343793220357</v>
+        <v>1.019133176374479</v>
       </c>
       <c r="L22">
-        <v>0.9838851585772848</v>
+        <v>1.001557510393331</v>
       </c>
       <c r="M22">
-        <v>0.9300288614906741</v>
+        <v>1.013651481924546</v>
       </c>
       <c r="N22">
-        <v>0.9871411886404415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007272127182201</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.019376304285691</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024668188107299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9552270841090524</v>
+        <v>0.9757375158327574</v>
       </c>
       <c r="D23">
-        <v>0.9840340845383074</v>
+        <v>1.004880503507126</v>
       </c>
       <c r="E23">
-        <v>0.9695846915211068</v>
+        <v>0.9871166169311361</v>
       </c>
       <c r="F23">
-        <v>0.9163329726623444</v>
+        <v>0.9994019041139025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030546461366195</v>
+        <v>1.041072792475324</v>
       </c>
       <c r="J23">
-        <v>0.9873539883504252</v>
+        <v>1.006893727239763</v>
       </c>
       <c r="K23">
-        <v>0.9996082859994379</v>
+        <v>1.020045307086762</v>
       </c>
       <c r="L23">
-        <v>0.9854563282257407</v>
+        <v>1.002628848018751</v>
       </c>
       <c r="M23">
-        <v>0.9334098906491596</v>
+        <v>1.014672132263515</v>
       </c>
       <c r="N23">
-        <v>0.9887561442649683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008323631824769</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.020184104724026</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025303361206065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.964544475353088</v>
+        <v>0.9827584216314152</v>
       </c>
       <c r="D24">
-        <v>0.991012966385627</v>
+        <v>1.009695545076071</v>
       </c>
       <c r="E24">
-        <v>0.9769904035007293</v>
+        <v>0.9926024433120246</v>
       </c>
       <c r="F24">
-        <v>0.9308283348408665</v>
+        <v>1.004663068593595</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033427047741738</v>
+        <v>1.04287602852518</v>
       </c>
       <c r="J24">
-        <v>0.9934791417922131</v>
+        <v>1.01093671573132</v>
       </c>
       <c r="K24">
-        <v>1.00519976417566</v>
+        <v>1.023554508868084</v>
       </c>
       <c r="L24">
-        <v>0.9914340128783027</v>
+        <v>1.006760725809348</v>
       </c>
       <c r="M24">
-        <v>0.9461897825384509</v>
+        <v>1.018608787407288</v>
       </c>
       <c r="N24">
-        <v>0.9948899961272083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012372361823721</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.02329978727201</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027776999578605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9747640973209754</v>
+        <v>0.9905758006498974</v>
       </c>
       <c r="D25">
-        <v>0.9986744437272284</v>
+        <v>1.015064612660737</v>
       </c>
       <c r="E25">
-        <v>0.9851517023675403</v>
+        <v>0.9987436053724044</v>
       </c>
       <c r="F25">
-        <v>0.9465732534374325</v>
+        <v>1.010570351469051</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036513081525859</v>
+        <v>1.044818269076671</v>
       </c>
       <c r="J25">
-        <v>1.00017165461753</v>
+        <v>1.015424543074733</v>
       </c>
       <c r="K25">
-        <v>1.011293372160497</v>
+        <v>1.027433485906839</v>
       </c>
       <c r="L25">
-        <v>0.9979849769509166</v>
+        <v>1.011361456609465</v>
       </c>
       <c r="M25">
-        <v>0.9600617299521296</v>
+        <v>1.023006762874746</v>
       </c>
       <c r="N25">
-        <v>1.001592013088379</v>
+        <v>1.016866562396722</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026780566801188</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030516794003226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_9_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_1/res_bus/vm_pu.xlsx
@@ -433,49 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9965419457814316</v>
+        <v>1.023125993955299</v>
       </c>
       <c r="D2">
-        <v>1.019151136735203</v>
+        <v>1.04386857125685</v>
       </c>
       <c r="E2">
-        <v>1.003450327451024</v>
+        <v>1.03676562213742</v>
       </c>
       <c r="F2">
-        <v>1.01512423235515</v>
+        <v>1.048341959261836</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04623565358964</v>
+        <v>1.060169469800223</v>
       </c>
       <c r="J2">
-        <v>1.018826580902894</v>
+        <v>1.044636346186314</v>
       </c>
       <c r="K2">
-        <v>1.030349960651664</v>
+        <v>1.054748793358561</v>
       </c>
       <c r="L2">
-        <v>1.014861802115467</v>
+        <v>1.047735456550056</v>
       </c>
       <c r="M2">
-        <v>1.026376808251998</v>
+        <v>1.059166520220197</v>
       </c>
       <c r="N2">
-        <v>1.020273431508816</v>
+        <v>1.018644987770182</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029447778653725</v>
+        <v>1.055398571839973</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03253023336338</v>
+        <v>1.049782321150529</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -486,49 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000758689508925</v>
+        <v>1.026373689828394</v>
       </c>
       <c r="D3">
-        <v>1.022047928301003</v>
+        <v>1.046116945714263</v>
       </c>
       <c r="E3">
-        <v>1.006792573823085</v>
+        <v>1.039253474715619</v>
       </c>
       <c r="F3">
-        <v>1.018358442132083</v>
+        <v>1.050736345334258</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047210015663159</v>
+        <v>1.061042417471703</v>
       </c>
       <c r="J3">
-        <v>1.021228693229426</v>
+        <v>1.046170320259787</v>
       </c>
       <c r="K3">
-        <v>1.03240626474237</v>
+        <v>1.05619189044588</v>
       </c>
       <c r="L3">
-        <v>1.017339273934035</v>
+        <v>1.049407576591535</v>
       </c>
       <c r="M3">
-        <v>1.028761690709446</v>
+        <v>1.060758731800239</v>
       </c>
       <c r="N3">
-        <v>1.02267895511038</v>
+        <v>1.019163179733951</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031335280184357</v>
+        <v>1.056658674153282</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033981558642871</v>
+        <v>1.050800059886602</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -539,49 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003430637525529</v>
+        <v>1.028442888194032</v>
       </c>
       <c r="D4">
-        <v>1.023883678923017</v>
+        <v>1.04755299230443</v>
       </c>
       <c r="E4">
-        <v>1.008916251214829</v>
+        <v>1.040844044859512</v>
       </c>
       <c r="F4">
-        <v>1.020416783855687</v>
+        <v>1.052267431849632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047811961979347</v>
+        <v>1.061590363809866</v>
       </c>
       <c r="J4">
-        <v>1.022746992499223</v>
+        <v>1.047145981708806</v>
       </c>
       <c r="K4">
-        <v>1.033702147523078</v>
+        <v>1.057109469253234</v>
       </c>
       <c r="L4">
-        <v>1.018908242971192</v>
+        <v>1.050473296098049</v>
       </c>
       <c r="M4">
-        <v>1.030274886215035</v>
+        <v>1.06177344939358</v>
       </c>
       <c r="N4">
-        <v>1.024199410539291</v>
+        <v>1.019492832894504</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032532887428054</v>
+        <v>1.057461737185569</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034898776109782</v>
+        <v>1.051449729037444</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -592,49 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004543928218046</v>
+        <v>1.029308068419774</v>
       </c>
       <c r="D5">
-        <v>1.024650360973909</v>
+        <v>1.04815614306365</v>
       </c>
       <c r="E5">
-        <v>1.0098029299847</v>
+        <v>1.04151087435705</v>
       </c>
       <c r="F5">
-        <v>1.021275472865804</v>
+        <v>1.052909512144354</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048060306945694</v>
+        <v>1.0618189072257</v>
       </c>
       <c r="J5">
-        <v>1.02337992105097</v>
+        <v>1.047554933382819</v>
       </c>
       <c r="K5">
-        <v>1.034242732407473</v>
+        <v>1.057495214312229</v>
       </c>
       <c r="L5">
-        <v>1.019562795081617</v>
+        <v>1.050920136230645</v>
       </c>
       <c r="M5">
-        <v>1.03090538993626</v>
+        <v>1.062199039524706</v>
       </c>
       <c r="N5">
-        <v>1.024833237922181</v>
+        <v>1.019631369933334</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033031894268319</v>
+        <v>1.057798555477786</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035288237304318</v>
+        <v>1.051729533837492</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -645,49 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004733869626131</v>
+        <v>1.029456333745259</v>
       </c>
       <c r="D6">
-        <v>1.024783361412827</v>
+        <v>1.048261834941067</v>
       </c>
       <c r="E6">
-        <v>1.009954848702671</v>
+        <v>1.041625806921704</v>
       </c>
       <c r="F6">
-        <v>1.021420819059379</v>
+        <v>1.053020334640079</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048104052341561</v>
+        <v>1.061859705490359</v>
       </c>
       <c r="J6">
-        <v>1.023489385998096</v>
+        <v>1.047626723038438</v>
       </c>
       <c r="K6">
-        <v>1.034337769372891</v>
+        <v>1.0575643886429</v>
       </c>
       <c r="L6">
-        <v>1.019675761424216</v>
+        <v>1.05099813696771</v>
       </c>
       <c r="M6">
-        <v>1.031012462534905</v>
+        <v>1.062273514438318</v>
       </c>
       <c r="N6">
-        <v>1.024942858322087</v>
+        <v>1.019656112120674</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033116635936106</v>
+        <v>1.057857496005089</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03536423698079</v>
+        <v>1.051787052896626</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -698,49 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003455662488705</v>
+        <v>1.028463704168378</v>
       </c>
       <c r="D7">
-        <v>1.023906743848574</v>
+        <v>1.047573596350595</v>
       </c>
       <c r="E7">
-        <v>1.008937696769173</v>
+        <v>1.040861652025364</v>
       </c>
       <c r="F7">
-        <v>1.020432653630997</v>
+        <v>1.052284777350708</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047821808192686</v>
+        <v>1.061600555945197</v>
       </c>
       <c r="J7">
-        <v>1.022765324752749</v>
+        <v>1.047160468930479</v>
       </c>
       <c r="K7">
-        <v>1.033722042309833</v>
+        <v>1.057127031205451</v>
       </c>
       <c r="L7">
-        <v>1.01892646969556</v>
+        <v>1.050487866226972</v>
       </c>
       <c r="M7">
-        <v>1.030287652971014</v>
+        <v>1.061787806634814</v>
       </c>
       <c r="N7">
-        <v>1.02421776882672</v>
+        <v>1.01949888611991</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032542991572676</v>
+        <v>1.057473099719957</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034933087125513</v>
+        <v>1.051481946440282</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -751,49 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9979914172541663</v>
+        <v>1.024241858080872</v>
       </c>
       <c r="D8">
-        <v>1.020153790085605</v>
+        <v>1.044647817691059</v>
       </c>
       <c r="E8">
-        <v>1.004599936463662</v>
+        <v>1.037621263577522</v>
       </c>
       <c r="F8">
-        <v>1.016229909140058</v>
+        <v>1.049165819490669</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046578796604326</v>
+        <v>1.060476808309526</v>
       </c>
       <c r="J8">
-        <v>1.01965804509715</v>
+        <v>1.045169486759874</v>
       </c>
       <c r="K8">
-        <v>1.031067513871998</v>
+        <v>1.055255151759382</v>
       </c>
       <c r="L8">
-        <v>1.015717957134274</v>
+        <v>1.048314649111542</v>
       </c>
       <c r="M8">
-        <v>1.027194433754841</v>
+        <v>1.059718578982298</v>
       </c>
       <c r="N8">
-        <v>1.0211060764776</v>
+        <v>1.018826564989393</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030094884242435</v>
+        <v>1.055835480418951</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03306069682541</v>
+        <v>1.050162908324508</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -804,49 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9878925357796882</v>
+        <v>1.01653135885242</v>
       </c>
       <c r="D9">
-        <v>1.013213035834047</v>
+        <v>1.039323993805059</v>
       </c>
       <c r="E9">
-        <v>0.9966290554375548</v>
+        <v>1.031745162184002</v>
       </c>
       <c r="F9">
-        <v>1.008541506085888</v>
+        <v>1.043511674863323</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044154603285711</v>
+        <v>1.058353481283488</v>
       </c>
       <c r="J9">
-        <v>1.013880205589475</v>
+        <v>1.041513560370445</v>
       </c>
       <c r="K9">
-        <v>1.026095317401418</v>
+        <v>1.051809731956822</v>
       </c>
       <c r="L9">
-        <v>1.009777061655617</v>
+        <v>1.04434336810254</v>
       </c>
       <c r="M9">
-        <v>1.021497506863243</v>
+        <v>1.055936157799534</v>
       </c>
       <c r="N9">
-        <v>1.015320031775097</v>
+        <v>1.017590656822495</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025586067501517</v>
+        <v>1.052842003706505</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029541752623534</v>
+        <v>1.047723712612604</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -857,49 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9809456340286865</v>
+        <v>1.011253374995192</v>
       </c>
       <c r="D10">
-        <v>1.008450915404839</v>
+        <v>1.035718621287819</v>
       </c>
       <c r="E10">
-        <v>0.9911950500727045</v>
+        <v>1.02777624466118</v>
       </c>
       <c r="F10">
-        <v>1.003548524086912</v>
+        <v>1.039724251930888</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042425225278415</v>
+        <v>1.056878932884836</v>
       </c>
       <c r="J10">
-        <v>1.009936185445665</v>
+        <v>1.039027515256648</v>
       </c>
       <c r="K10">
-        <v>1.022669244164364</v>
+        <v>1.049471583388104</v>
       </c>
       <c r="L10">
-        <v>1.005725121482776</v>
+        <v>1.041661469283868</v>
       </c>
       <c r="M10">
-        <v>1.017854003054644</v>
+        <v>1.053411494357224</v>
       </c>
       <c r="N10">
-        <v>1.011370410670298</v>
+        <v>1.016756056982367</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022754849967467</v>
+        <v>1.050894607592977</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027136237218653</v>
+        <v>1.046087112911797</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -910,49 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9788093521063566</v>
+        <v>1.009291825729812</v>
       </c>
       <c r="D11">
-        <v>1.007024249181742</v>
+        <v>1.034514052487991</v>
       </c>
       <c r="E11">
-        <v>0.9896412512355445</v>
+        <v>1.026480268562485</v>
       </c>
       <c r="F11">
-        <v>1.003962324932999</v>
+        <v>1.038726697471131</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041986962784103</v>
+        <v>1.056472604047338</v>
       </c>
       <c r="J11">
-        <v>1.00909105317253</v>
+        <v>1.038283098410379</v>
       </c>
       <c r="K11">
-        <v>1.021814903159303</v>
+        <v>1.048813170991481</v>
       </c>
       <c r="L11">
-        <v>1.004761198549546</v>
+        <v>1.040919506498643</v>
       </c>
       <c r="M11">
-        <v>1.018809902471057</v>
+        <v>1.052953461171108</v>
       </c>
       <c r="N11">
-        <v>1.010524078212397</v>
+        <v>1.016549299731112</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023954996418782</v>
+        <v>1.05096214404761</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02656538407692</v>
+        <v>1.045653978581456</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -963,49 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9783210038107645</v>
+        <v>1.008683839395694</v>
       </c>
       <c r="D12">
-        <v>1.00671016856212</v>
+        <v>1.034190667199004</v>
       </c>
       <c r="E12">
-        <v>0.9893409120026595</v>
+        <v>1.026151466430876</v>
       </c>
       <c r="F12">
-        <v>1.004986342546891</v>
+        <v>1.038589115108229</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041931552177484</v>
+        <v>1.056404664497852</v>
       </c>
       <c r="J12">
-        <v>1.009072064803313</v>
+        <v>1.038125176878951</v>
       </c>
       <c r="K12">
-        <v>1.021709931656669</v>
+        <v>1.048690889452982</v>
       </c>
       <c r="L12">
-        <v>1.00467521268005</v>
+        <v>1.040794229228575</v>
       </c>
       <c r="M12">
-        <v>1.020018631578249</v>
+        <v>1.053012558612403</v>
       </c>
       <c r="N12">
-        <v>1.010505062877517</v>
+        <v>1.016529472819309</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025242126806068</v>
+        <v>1.051331083548053</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026491164235967</v>
+        <v>1.045567523853353</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1016,49 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9790776718135854</v>
+        <v>1.00909018557417</v>
       </c>
       <c r="D13">
-        <v>1.007243923209274</v>
+        <v>1.034541262357657</v>
       </c>
       <c r="E13">
-        <v>0.9899918461863296</v>
+        <v>1.026558063838549</v>
       </c>
       <c r="F13">
-        <v>1.006573221451993</v>
+        <v>1.039124054921711</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042179201978626</v>
+        <v>1.056607516572702</v>
       </c>
       <c r="J13">
-        <v>1.009698707771767</v>
+        <v>1.038423519968938</v>
       </c>
       <c r="K13">
-        <v>1.022190072346114</v>
+        <v>1.048993417167279</v>
       </c>
       <c r="L13">
-        <v>1.005268643744872</v>
+        <v>1.041151160221803</v>
       </c>
       <c r="M13">
-        <v>1.021531948559398</v>
+        <v>1.053496567190837</v>
       </c>
       <c r="N13">
-        <v>1.011132595750864</v>
+        <v>1.016659010389025</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026718595082089</v>
+        <v>1.051987308623679</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026828126026719</v>
+        <v>1.045778957896109</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1069,49 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9801585894026571</v>
+        <v>1.009835486594967</v>
       </c>
       <c r="D14">
-        <v>1.007993784435736</v>
+        <v>1.035093956324239</v>
       </c>
       <c r="E14">
-        <v>0.9908674282469805</v>
+        <v>1.027176642788059</v>
       </c>
       <c r="F14">
-        <v>1.007910270446861</v>
+        <v>1.039804365478373</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042485572980742</v>
+        <v>1.056872829768678</v>
       </c>
       <c r="J14">
-        <v>1.010417612454453</v>
+        <v>1.038839823852966</v>
       </c>
       <c r="K14">
-        <v>1.02278328119306</v>
+        <v>1.049399211750288</v>
       </c>
       <c r="L14">
-        <v>1.005980849341562</v>
+        <v>1.04161994429806</v>
       </c>
       <c r="M14">
-        <v>1.022701311951209</v>
+        <v>1.054028778682145</v>
       </c>
       <c r="N14">
-        <v>1.011852521360659</v>
+        <v>1.016817680364061</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027817929151773</v>
+        <v>1.052579623494156</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027248993304331</v>
+        <v>1.046067264679104</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1122,49 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9807066164030492</v>
+        <v>1.010242707409164</v>
       </c>
       <c r="D15">
-        <v>1.008372656798901</v>
+        <v>1.035382808542055</v>
       </c>
       <c r="E15">
-        <v>0.9913007716196004</v>
+        <v>1.027494688878095</v>
       </c>
       <c r="F15">
-        <v>1.008408517367875</v>
+        <v>1.040128106330097</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042632119974928</v>
+        <v>1.05700130817369</v>
       </c>
       <c r="J15">
-        <v>1.010748550027167</v>
+        <v>1.039046949482889</v>
       </c>
       <c r="K15">
-        <v>1.023067325661603</v>
+        <v>1.049598544541719</v>
       </c>
       <c r="L15">
-        <v>1.006315777037109</v>
+        <v>1.041846922284207</v>
       </c>
       <c r="M15">
-        <v>1.02310252821159</v>
+        <v>1.054263016011914</v>
       </c>
       <c r="N15">
-        <v>1.012183928902685</v>
+        <v>1.016891527533183</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028172899301284</v>
+        <v>1.052801964567357</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027455760172196</v>
+        <v>1.046213982640228</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1175,49 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9834882876565243</v>
+        <v>1.012400172430951</v>
       </c>
       <c r="D16">
-        <v>1.010279116390844</v>
+        <v>1.036848986281129</v>
       </c>
       <c r="E16">
-        <v>0.9934574179198945</v>
+        <v>1.029100931884174</v>
       </c>
       <c r="F16">
-        <v>1.01025491878917</v>
+        <v>1.041652606114199</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04333088162827</v>
+        <v>1.05760595323315</v>
       </c>
       <c r="J16">
-        <v>1.012293747929101</v>
+        <v>1.040055060626493</v>
       </c>
       <c r="K16">
-        <v>1.024429085679848</v>
+        <v>1.050548515807401</v>
       </c>
       <c r="L16">
-        <v>1.00790878568229</v>
+        <v>1.042928718602304</v>
       </c>
       <c r="M16">
-        <v>1.024405312292209</v>
+        <v>1.055273849396671</v>
       </c>
       <c r="N16">
-        <v>1.013731321162876</v>
+        <v>1.017224967422075</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029163563783365</v>
+        <v>1.053562570563699</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028421788146462</v>
+        <v>1.046888750226157</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1228,49 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9850656019354072</v>
+        <v>1.013666631467885</v>
       </c>
       <c r="D17">
-        <v>1.011356001436675</v>
+        <v>1.037685310405024</v>
       </c>
       <c r="E17">
-        <v>0.994663292644118</v>
+        <v>1.030010456234101</v>
       </c>
       <c r="F17">
-        <v>1.010977474234435</v>
+        <v>1.04246299813466</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043706158139549</v>
+        <v>1.057928143099907</v>
       </c>
       <c r="J17">
-        <v>1.013110036306088</v>
+        <v>1.040609565807445</v>
       </c>
       <c r="K17">
-        <v>1.025167806049617</v>
+        <v>1.051063340228224</v>
       </c>
       <c r="L17">
-        <v>1.008765545209506</v>
+        <v>1.043511987730265</v>
       </c>
       <c r="M17">
-        <v>1.02479572783493</v>
+        <v>1.055765322175254</v>
       </c>
       <c r="N17">
-        <v>1.014548768762988</v>
+        <v>1.017397305838383</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029341955692794</v>
+        <v>1.053823275220868</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028946711996503</v>
+        <v>1.04725529185789</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1281,49 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9857097099411911</v>
+        <v>1.014273166555619</v>
       </c>
       <c r="D18">
-        <v>1.011782934003529</v>
+        <v>1.038036950571031</v>
       </c>
       <c r="E18">
-        <v>0.9951191367144538</v>
+        <v>1.030383443686119</v>
       </c>
       <c r="F18">
-        <v>1.01062807494972</v>
+        <v>1.042699128565006</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043822176583153</v>
+        <v>1.058025308861953</v>
       </c>
       <c r="J18">
-        <v>1.013323674116837</v>
+        <v>1.040807587825593</v>
       </c>
       <c r="K18">
-        <v>1.025401331690427</v>
+        <v>1.051229900449625</v>
       </c>
       <c r="L18">
-        <v>1.009022655452827</v>
+        <v>1.043697548724199</v>
       </c>
       <c r="M18">
-        <v>1.024265841538777</v>
+        <v>1.055819389776846</v>
       </c>
       <c r="N18">
-        <v>1.014762709963933</v>
+        <v>1.017439141726839</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028682852945997</v>
+        <v>1.053630977154338</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029100074218453</v>
+        <v>1.047361585111392</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1334,49 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9854765676822593</v>
+        <v>1.014289517081451</v>
       </c>
       <c r="D19">
-        <v>1.011605886599829</v>
+        <v>1.037962358151115</v>
       </c>
       <c r="E19">
-        <v>0.9948681904876147</v>
+        <v>1.030275789318825</v>
       </c>
       <c r="F19">
-        <v>1.009198257478549</v>
+        <v>1.042420598838014</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043698250294269</v>
+        <v>1.057927424176208</v>
       </c>
       <c r="J19">
-        <v>1.012961798363457</v>
+        <v>1.040691806195033</v>
       </c>
       <c r="K19">
-        <v>1.02516376449289</v>
+        <v>1.051095269967929</v>
       </c>
       <c r="L19">
-        <v>1.008711074927215</v>
+        <v>1.043529760096398</v>
       </c>
       <c r="M19">
-        <v>1.022796381627491</v>
+        <v>1.055484340556119</v>
       </c>
       <c r="N19">
-        <v>1.014400320305475</v>
+        <v>1.017369070099679</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027191194268974</v>
+        <v>1.053044693967198</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028938562085439</v>
+        <v>1.047272701799744</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1387,49 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9827773403463462</v>
+        <v>1.012643043257905</v>
       </c>
       <c r="D20">
-        <v>1.009718823573317</v>
+        <v>1.03668180912425</v>
       </c>
       <c r="E20">
-        <v>0.992630169089305</v>
+        <v>1.02882430963646</v>
       </c>
       <c r="F20">
-        <v>1.00486530043932</v>
+        <v>1.040726527595214</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042896088892368</v>
+        <v>1.057282000524804</v>
       </c>
       <c r="J20">
-        <v>1.010988699204327</v>
+        <v>1.039695148464205</v>
       </c>
       <c r="K20">
-        <v>1.023592905123163</v>
+        <v>1.05010892636032</v>
       </c>
       <c r="L20">
-        <v>1.006803857906452</v>
+        <v>1.042378571398363</v>
       </c>
       <c r="M20">
-        <v>1.018823135510778</v>
+        <v>1.054089154865677</v>
       </c>
       <c r="N20">
-        <v>1.012424419119222</v>
+        <v>1.016983717200881</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023511078631529</v>
+        <v>1.051420503015415</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02783185205564</v>
+        <v>1.046579201376467</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1440,49 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9773551819570923</v>
+        <v>1.008619057470158</v>
       </c>
       <c r="D21">
-        <v>1.005995887343364</v>
+        <v>1.033913058423973</v>
       </c>
       <c r="E21">
-        <v>0.9883807082426688</v>
+        <v>1.025775969104087</v>
       </c>
       <c r="F21">
-        <v>1.000606367784193</v>
+        <v>1.037771405037319</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041497268741536</v>
+        <v>1.056112884034711</v>
       </c>
       <c r="J21">
-        <v>1.007831161278016</v>
+        <v>1.037760787729771</v>
       </c>
       <c r="K21">
-        <v>1.020864549261793</v>
+        <v>1.04827921367967</v>
       </c>
       <c r="L21">
-        <v>1.003585606781055</v>
+        <v>1.040284927093209</v>
       </c>
       <c r="M21">
-        <v>1.015576261441367</v>
+        <v>1.052070859752597</v>
       </c>
       <c r="N21">
-        <v>1.009262397126881</v>
+        <v>1.016326197396832</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.02089968290621</v>
+        <v>1.049782924457155</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025906037969641</v>
+        <v>1.045288740037182</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1493,49 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9739143081919217</v>
+        <v>1.006059082611207</v>
       </c>
       <c r="D22">
-        <v>1.003633354959796</v>
+        <v>1.032158896861898</v>
       </c>
       <c r="E22">
-        <v>0.9856972876218609</v>
+        <v>1.023852835634585</v>
       </c>
       <c r="F22">
-        <v>0.998041119083427</v>
+        <v>1.035922317203112</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040597757299131</v>
+        <v>1.055366021629184</v>
       </c>
       <c r="J22">
-        <v>1.005843713736808</v>
+        <v>1.036535620883108</v>
       </c>
       <c r="K22">
-        <v>1.019133176374479</v>
+        <v>1.04711911088055</v>
       </c>
       <c r="L22">
-        <v>1.001557510393331</v>
+        <v>1.038966124143031</v>
       </c>
       <c r="M22">
-        <v>1.013651481924546</v>
+        <v>1.050814224805509</v>
       </c>
       <c r="N22">
-        <v>1.007272127182201</v>
+        <v>1.01591090970521</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019376304285691</v>
+        <v>1.048788394082057</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024668188107299</v>
+        <v>1.044455198427629</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1546,49 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9757375158327574</v>
+        <v>1.007411847072907</v>
       </c>
       <c r="D23">
-        <v>1.004880503507126</v>
+        <v>1.033080144782558</v>
       </c>
       <c r="E23">
-        <v>0.9871166169311361</v>
+        <v>1.024866764244649</v>
       </c>
       <c r="F23">
-        <v>0.9994019041139025</v>
+        <v>1.036897021294519</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041072792475324</v>
+        <v>1.055757613880648</v>
       </c>
       <c r="J23">
-        <v>1.006893727239763</v>
+        <v>1.03717904178304</v>
       </c>
       <c r="K23">
-        <v>1.020045307086762</v>
+        <v>1.047725258989569</v>
       </c>
       <c r="L23">
-        <v>1.002628848018751</v>
+        <v>1.039659402555581</v>
       </c>
       <c r="M23">
-        <v>1.014672132263515</v>
+        <v>1.051474610029015</v>
       </c>
       <c r="N23">
-        <v>1.008323631824769</v>
+        <v>1.016127766505816</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020184104724026</v>
+        <v>1.049311038604877</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025303361206065</v>
+        <v>1.044874257805261</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1599,49 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9827584216314152</v>
+        <v>1.012660232428707</v>
       </c>
       <c r="D24">
-        <v>1.009695545076071</v>
+        <v>1.036672900880356</v>
       </c>
       <c r="E24">
-        <v>0.9926024433120246</v>
+        <v>1.028818014237382</v>
       </c>
       <c r="F24">
-        <v>1.004663068593595</v>
+        <v>1.040696486519923</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04287602852518</v>
+        <v>1.057266278244077</v>
       </c>
       <c r="J24">
-        <v>1.01093671573132</v>
+        <v>1.039679498598004</v>
       </c>
       <c r="K24">
-        <v>1.023554508868084</v>
+        <v>1.050085216694822</v>
       </c>
       <c r="L24">
-        <v>1.006760725809348</v>
+        <v>1.04235727235705</v>
       </c>
       <c r="M24">
-        <v>1.018608787407288</v>
+        <v>1.054044728040025</v>
       </c>
       <c r="N24">
-        <v>1.012372361823721</v>
+        <v>1.016972726671722</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02329978727201</v>
+        <v>1.051345087445532</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027776999578605</v>
+        <v>1.046535420890106</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1652,49 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9905758006498974</v>
+        <v>1.01857104887063</v>
       </c>
       <c r="D25">
-        <v>1.015064612660737</v>
+        <v>1.040737991243549</v>
       </c>
       <c r="E25">
-        <v>0.9987436053724044</v>
+        <v>1.033296814735267</v>
       </c>
       <c r="F25">
-        <v>1.010570351469051</v>
+        <v>1.045004851145532</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044818269076671</v>
+        <v>1.05892945124027</v>
       </c>
       <c r="J25">
-        <v>1.015424543074733</v>
+        <v>1.042489188688318</v>
       </c>
       <c r="K25">
-        <v>1.027433485906839</v>
+        <v>1.05273518390209</v>
       </c>
       <c r="L25">
-        <v>1.011361456609465</v>
+        <v>1.045399329566552</v>
       </c>
       <c r="M25">
-        <v>1.023006762874746</v>
+        <v>1.056942504447276</v>
       </c>
       <c r="N25">
-        <v>1.016866562396722</v>
+        <v>1.017922376812525</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026780566801188</v>
+        <v>1.053638445847625</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030516794003226</v>
+        <v>1.04840621191732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_9_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023125993955299</v>
+        <v>1.021605780823921</v>
       </c>
       <c r="D2">
-        <v>1.04386857125685</v>
+        <v>1.041433743724282</v>
       </c>
       <c r="E2">
-        <v>1.03676562213742</v>
+        <v>1.035374797612816</v>
       </c>
       <c r="F2">
-        <v>1.048341959261836</v>
+        <v>1.046748404617301</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.060169469800223</v>
+        <v>1.058853920605638</v>
       </c>
       <c r="J2">
-        <v>1.044636346186314</v>
+        <v>1.043158926673988</v>
       </c>
       <c r="K2">
-        <v>1.054748793358561</v>
+        <v>1.052344512368727</v>
       </c>
       <c r="L2">
-        <v>1.047735456550056</v>
+        <v>1.046362358796068</v>
       </c>
       <c r="M2">
-        <v>1.059166520220197</v>
+        <v>1.057592725790914</v>
       </c>
       <c r="N2">
-        <v>1.018644987770182</v>
+        <v>1.018555016551767</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.055398571839973</v>
+        <v>1.054153043109939</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049782321150529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048090982722707</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025874441901814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026373689828394</v>
+        <v>1.02474259341391</v>
       </c>
       <c r="D3">
-        <v>1.046116945714263</v>
+        <v>1.043529081934599</v>
       </c>
       <c r="E3">
-        <v>1.039253474715619</v>
+        <v>1.0377610387276</v>
       </c>
       <c r="F3">
-        <v>1.050736345334258</v>
+        <v>1.049036945847249</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I3">
-        <v>1.061042417471703</v>
+        <v>1.059638238136936</v>
       </c>
       <c r="J3">
-        <v>1.046170320259787</v>
+        <v>1.044580746384104</v>
       </c>
       <c r="K3">
-        <v>1.05619189044588</v>
+        <v>1.053633721762263</v>
       </c>
       <c r="L3">
-        <v>1.049407576591535</v>
+        <v>1.047932524412857</v>
       </c>
       <c r="M3">
-        <v>1.060758731800239</v>
+        <v>1.059078601250545</v>
       </c>
       <c r="N3">
-        <v>1.019163179733951</v>
+        <v>1.018935554002772</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.056658674153282</v>
+        <v>1.055328991267187</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050800059886602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048999639670449</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02612179962036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028442888194032</v>
+        <v>1.02674167611844</v>
       </c>
       <c r="D4">
-        <v>1.04755299230443</v>
+        <v>1.044867959768978</v>
       </c>
       <c r="E4">
-        <v>1.040844044859512</v>
+        <v>1.039287285247354</v>
       </c>
       <c r="F4">
-        <v>1.052267431849632</v>
+        <v>1.050500933179453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061590363809866</v>
+        <v>1.060129825638474</v>
       </c>
       <c r="J4">
-        <v>1.047145981708806</v>
+        <v>1.045485210585739</v>
       </c>
       <c r="K4">
-        <v>1.057109469253234</v>
+        <v>1.054453424627522</v>
       </c>
       <c r="L4">
-        <v>1.050473296098049</v>
+        <v>1.048933588140557</v>
       </c>
       <c r="M4">
-        <v>1.06177344939358</v>
+        <v>1.060025792862276</v>
       </c>
       <c r="N4">
-        <v>1.019492832894504</v>
+        <v>1.019177720081061</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.057461737185569</v>
+        <v>1.056078614536254</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051449729037444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049580188748106</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026276875258204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029308068419774</v>
+        <v>1.027577623997444</v>
       </c>
       <c r="D5">
-        <v>1.04815614306365</v>
+        <v>1.045430592448845</v>
       </c>
       <c r="E5">
-        <v>1.04151087435705</v>
+        <v>1.039927284105587</v>
       </c>
       <c r="F5">
-        <v>1.052909512144354</v>
+        <v>1.051115030072252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.0618189072257</v>
+        <v>1.060334832375176</v>
       </c>
       <c r="J5">
-        <v>1.047554933382819</v>
+        <v>1.045864421899154</v>
       </c>
       <c r="K5">
-        <v>1.057495214312229</v>
+        <v>1.054798320314342</v>
       </c>
       <c r="L5">
-        <v>1.050920136230645</v>
+        <v>1.049353434711218</v>
       </c>
       <c r="M5">
-        <v>1.062199039524706</v>
+        <v>1.060423196858315</v>
       </c>
       <c r="N5">
-        <v>1.019631369933334</v>
+        <v>1.019279535334467</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.057798555477786</v>
+        <v>1.056393126479753</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051729533837492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049831823161178</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026342092967133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029456333745259</v>
+        <v>1.027720842244877</v>
       </c>
       <c r="D6">
-        <v>1.048261834941067</v>
+        <v>1.045529384975978</v>
       </c>
       <c r="E6">
-        <v>1.041625806921704</v>
+        <v>1.040037585012411</v>
       </c>
       <c r="F6">
-        <v>1.053020334640079</v>
+        <v>1.051221054665579</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061859705490359</v>
+        <v>1.060371602299595</v>
       </c>
       <c r="J6">
-        <v>1.047626723038438</v>
+        <v>1.045931079378956</v>
       </c>
       <c r="K6">
-        <v>1.0575643886429</v>
+        <v>1.054860538658669</v>
       </c>
       <c r="L6">
-        <v>1.05099813696771</v>
+        <v>1.04942677647145</v>
       </c>
       <c r="M6">
-        <v>1.062273514438318</v>
+        <v>1.060492839540215</v>
       </c>
       <c r="N6">
-        <v>1.019656112120674</v>
+        <v>1.019297750291391</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.057857496005089</v>
+        <v>1.056448242810108</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051787052896626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049885293802302</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026354437241749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028463704168378</v>
+        <v>1.026768136149257</v>
       </c>
       <c r="D7">
-        <v>1.047573596350595</v>
+        <v>1.044892458711155</v>
       </c>
       <c r="E7">
-        <v>1.040861652025364</v>
+        <v>1.039309601309424</v>
       </c>
       <c r="F7">
-        <v>1.052284777350708</v>
+        <v>1.050522047582791</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.061600555945197</v>
+        <v>1.060142932605226</v>
       </c>
       <c r="J7">
-        <v>1.047160468930479</v>
+        <v>1.045505190568197</v>
       </c>
       <c r="K7">
-        <v>1.057127031205451</v>
+        <v>1.054474828286213</v>
       </c>
       <c r="L7">
-        <v>1.050487866226972</v>
+        <v>1.048952809133368</v>
       </c>
       <c r="M7">
-        <v>1.061787806634814</v>
+        <v>1.060043871729376</v>
       </c>
       <c r="N7">
-        <v>1.01949888611991</v>
+        <v>1.019209718292469</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.057473099719957</v>
+        <v>1.056092922446601</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051481946440282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049617123497698</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026283208884236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024241858080872</v>
+        <v>1.02270308296519</v>
       </c>
       <c r="D8">
-        <v>1.044647817691059</v>
+        <v>1.042175047208062</v>
       </c>
       <c r="E8">
-        <v>1.037621263577522</v>
+        <v>1.036212042527176</v>
       </c>
       <c r="F8">
-        <v>1.049165819490669</v>
+        <v>1.047549460189578</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.060476808309526</v>
+        <v>1.059141394294428</v>
       </c>
       <c r="J8">
-        <v>1.045169486759874</v>
+        <v>1.043672606309586</v>
       </c>
       <c r="K8">
-        <v>1.055255151759382</v>
+        <v>1.05281249982441</v>
       </c>
       <c r="L8">
-        <v>1.048314649111542</v>
+        <v>1.046922861171307</v>
       </c>
       <c r="M8">
-        <v>1.059718578982298</v>
+        <v>1.058121677130842</v>
       </c>
       <c r="N8">
-        <v>1.018826564989393</v>
+        <v>1.018771954576419</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.055835480418951</v>
+        <v>1.054571664778311</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050162908324508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04844670995221</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025968673409693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01653135885242</v>
+        <v>1.015262133919569</v>
       </c>
       <c r="D9">
-        <v>1.039323993805059</v>
+        <v>1.037218552983117</v>
       </c>
       <c r="E9">
-        <v>1.031745162184002</v>
+        <v>1.030582249502149</v>
       </c>
       <c r="F9">
-        <v>1.043511674863323</v>
+        <v>1.042150661034305</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058353481283488</v>
+        <v>1.057230627929161</v>
       </c>
       <c r="J9">
-        <v>1.041513560370445</v>
+        <v>1.040287223828252</v>
       </c>
       <c r="K9">
-        <v>1.051809731956822</v>
+        <v>1.049735325814856</v>
       </c>
       <c r="L9">
-        <v>1.04434336810254</v>
+        <v>1.043197899040372</v>
       </c>
       <c r="M9">
-        <v>1.055936157799534</v>
+        <v>1.054594983660668</v>
       </c>
       <c r="N9">
-        <v>1.017590656822495</v>
+        <v>1.017874923624801</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.052842003706505</v>
+        <v>1.051780571324253</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047723712612604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046267593791844</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025364445342992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011253374995192</v>
+        <v>1.010197398851404</v>
       </c>
       <c r="D10">
-        <v>1.035718621287819</v>
+        <v>1.033884589126211</v>
       </c>
       <c r="E10">
-        <v>1.02777624466118</v>
+        <v>1.026805501187066</v>
       </c>
       <c r="F10">
-        <v>1.039724251930888</v>
+        <v>1.038557289093572</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056878932884836</v>
+        <v>1.055915459795608</v>
       </c>
       <c r="J10">
-        <v>1.039027515256648</v>
+        <v>1.038012190606376</v>
       </c>
       <c r="K10">
-        <v>1.049471583388104</v>
+        <v>1.047667860647375</v>
       </c>
       <c r="L10">
-        <v>1.041661469283868</v>
+        <v>1.040707072370108</v>
       </c>
       <c r="M10">
-        <v>1.053411494357224</v>
+        <v>1.052263610397285</v>
       </c>
       <c r="N10">
-        <v>1.016756056982367</v>
+        <v>1.017386633532605</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.050894607592977</v>
+        <v>1.049986201731911</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046087112911797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044824055031905</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024955705071714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009291825729812</v>
+        <v>1.008334792617808</v>
       </c>
       <c r="D11">
-        <v>1.034514052487991</v>
+        <v>1.032789464206241</v>
       </c>
       <c r="E11">
-        <v>1.026480268562485</v>
+        <v>1.025594114546176</v>
       </c>
       <c r="F11">
-        <v>1.038726697471131</v>
+        <v>1.037642837018582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056472604047338</v>
+        <v>1.055576470513048</v>
       </c>
       <c r="J11">
-        <v>1.038283098410379</v>
+        <v>1.03736489864196</v>
       </c>
       <c r="K11">
-        <v>1.048813170991481</v>
+        <v>1.047118423943241</v>
       </c>
       <c r="L11">
-        <v>1.040919506498643</v>
+        <v>1.040048982451365</v>
       </c>
       <c r="M11">
-        <v>1.052953461171108</v>
+        <v>1.051888144159356</v>
       </c>
       <c r="N11">
-        <v>1.016549299731112</v>
+        <v>1.017471141450832</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.05096214404761</v>
+        <v>1.050119491822281</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045653978581456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044471187346647</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024890759670867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008683839395694</v>
+        <v>1.007752537706559</v>
       </c>
       <c r="D12">
-        <v>1.034190667199004</v>
+        <v>1.032493713982316</v>
       </c>
       <c r="E12">
-        <v>1.026151466430876</v>
+        <v>1.025285540720176</v>
       </c>
       <c r="F12">
-        <v>1.038589115108229</v>
+        <v>1.037526403730998</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.056404664497852</v>
+        <v>1.055525832746743</v>
       </c>
       <c r="J12">
-        <v>1.038125176878951</v>
+        <v>1.037232381989464</v>
       </c>
       <c r="K12">
-        <v>1.048690889452982</v>
+        <v>1.047023784760396</v>
       </c>
       <c r="L12">
-        <v>1.040794229228575</v>
+        <v>1.039943830227529</v>
       </c>
       <c r="M12">
-        <v>1.053012558612403</v>
+        <v>1.051968320576736</v>
       </c>
       <c r="N12">
-        <v>1.016529472819309</v>
+        <v>1.017559025723465</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.051331083548053</v>
+        <v>1.050505377127923</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045567523853353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044404277317792</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024902060775407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00909018557417</v>
+        <v>1.008120735927423</v>
       </c>
       <c r="D13">
-        <v>1.034541262357657</v>
+        <v>1.032803860169859</v>
       </c>
       <c r="E13">
-        <v>1.026558063838549</v>
+        <v>1.025656692542255</v>
       </c>
       <c r="F13">
-        <v>1.039124054921711</v>
+        <v>1.038029956294327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056607516572702</v>
+        <v>1.055703737803162</v>
       </c>
       <c r="J13">
-        <v>1.038423519968938</v>
+        <v>1.03749396456719</v>
       </c>
       <c r="K13">
-        <v>1.048993417167279</v>
+        <v>1.047286448043077</v>
       </c>
       <c r="L13">
-        <v>1.041151160221803</v>
+        <v>1.040265881437965</v>
       </c>
       <c r="M13">
-        <v>1.053496567190837</v>
+        <v>1.052421399783372</v>
       </c>
       <c r="N13">
-        <v>1.016659010389025</v>
+        <v>1.017625171511268</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.051987308623679</v>
+        <v>1.051137354702018</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045778957896109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044587280606389</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024978348257681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009835486594967</v>
+        <v>1.008811127240451</v>
       </c>
       <c r="D14">
-        <v>1.035093956324239</v>
+        <v>1.033297939490911</v>
       </c>
       <c r="E14">
-        <v>1.027176642788059</v>
+        <v>1.02622606281854</v>
       </c>
       <c r="F14">
-        <v>1.039804365478373</v>
+        <v>1.038665084114704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056872829768678</v>
+        <v>1.055932822617923</v>
       </c>
       <c r="J14">
-        <v>1.038839823852966</v>
+        <v>1.037857029327643</v>
       </c>
       <c r="K14">
-        <v>1.049399211750288</v>
+        <v>1.047634270154725</v>
       </c>
       <c r="L14">
-        <v>1.04161994429806</v>
+        <v>1.040686124335709</v>
       </c>
       <c r="M14">
-        <v>1.054028778682145</v>
+        <v>1.052908963330358</v>
       </c>
       <c r="N14">
-        <v>1.016817680364061</v>
+        <v>1.017663272918919</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.052579623494156</v>
+        <v>1.05169449157436</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046067264679104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044834734549659</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025061906852574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010242707409164</v>
+        <v>1.009191331790081</v>
       </c>
       <c r="D15">
-        <v>1.035382808542055</v>
+        <v>1.033557708525324</v>
       </c>
       <c r="E15">
-        <v>1.027494688878095</v>
+        <v>1.026520262776349</v>
       </c>
       <c r="F15">
-        <v>1.040128106330097</v>
+        <v>1.038966516331347</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05700130817369</v>
+        <v>1.056043331579547</v>
       </c>
       <c r="J15">
-        <v>1.039046949482889</v>
+        <v>1.03803787017487</v>
       </c>
       <c r="K15">
-        <v>1.049598544541719</v>
+        <v>1.047804786835576</v>
       </c>
       <c r="L15">
-        <v>1.041846922284207</v>
+        <v>1.040889546427969</v>
       </c>
       <c r="M15">
-        <v>1.054263016011914</v>
+        <v>1.053121123190315</v>
       </c>
       <c r="N15">
-        <v>1.016891527533183</v>
+        <v>1.017672735071228</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.052801964567357</v>
+        <v>1.051899405509948</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046213982640228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044961648996995</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025099060364481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012400172430951</v>
+        <v>1.011224116623399</v>
       </c>
       <c r="D16">
-        <v>1.036848986281129</v>
+        <v>1.034885766685055</v>
       </c>
       <c r="E16">
-        <v>1.029100931884174</v>
+        <v>1.028017603503317</v>
       </c>
       <c r="F16">
-        <v>1.041652606114199</v>
+        <v>1.040386481973306</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05760595323315</v>
+        <v>1.05656321340956</v>
       </c>
       <c r="J16">
-        <v>1.040055060626493</v>
+        <v>1.038923997781902</v>
       </c>
       <c r="K16">
-        <v>1.050548515807401</v>
+        <v>1.048617560608638</v>
       </c>
       <c r="L16">
-        <v>1.042928718602304</v>
+        <v>1.041863521639662</v>
       </c>
       <c r="M16">
-        <v>1.055273849396671</v>
+        <v>1.054028269597145</v>
       </c>
       <c r="N16">
-        <v>1.017224967422075</v>
+        <v>1.017699667107063</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.053562570563699</v>
+        <v>1.052578029097497</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046888750226157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045539716197806</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025256579976899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013666631467885</v>
+        <v>1.012430425264261</v>
       </c>
       <c r="D17">
-        <v>1.037685310405024</v>
+        <v>1.035651798153612</v>
       </c>
       <c r="E17">
-        <v>1.030010456234101</v>
+        <v>1.028874715595119</v>
       </c>
       <c r="F17">
-        <v>1.04246299813466</v>
+        <v>1.041144843891208</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.057928143099907</v>
+        <v>1.056842875893843</v>
       </c>
       <c r="J17">
-        <v>1.040609565807445</v>
+        <v>1.039419161177482</v>
       </c>
       <c r="K17">
-        <v>1.051063340228224</v>
+        <v>1.049062322131497</v>
       </c>
       <c r="L17">
-        <v>1.043511987730265</v>
+        <v>1.042394724193757</v>
       </c>
       <c r="M17">
-        <v>1.055765322175254</v>
+        <v>1.054467966140642</v>
       </c>
       <c r="N17">
-        <v>1.017397305838383</v>
+        <v>1.01772850920474</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.053823275220868</v>
+        <v>1.052797707874248</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04725529185789</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045856970439422</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025333912952208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014273166555619</v>
+        <v>1.013019407060806</v>
       </c>
       <c r="D18">
-        <v>1.038036950571031</v>
+        <v>1.035980178619615</v>
       </c>
       <c r="E18">
-        <v>1.030383443686119</v>
+        <v>1.029233101106962</v>
       </c>
       <c r="F18">
-        <v>1.042699128565006</v>
+        <v>1.041364531846726</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.058025308861953</v>
+        <v>1.056926351842535</v>
       </c>
       <c r="J18">
-        <v>1.040807587825593</v>
+        <v>1.039599422135001</v>
       </c>
       <c r="K18">
-        <v>1.051229900449625</v>
+        <v>1.049205462101176</v>
       </c>
       <c r="L18">
-        <v>1.043697548724199</v>
+        <v>1.042565615833347</v>
       </c>
       <c r="M18">
-        <v>1.055819389776846</v>
+        <v>1.054505515968413</v>
       </c>
       <c r="N18">
-        <v>1.017439141726839</v>
+        <v>1.017718998271653</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.053630977154338</v>
+        <v>1.052592140288193</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047361585111392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045945568553392</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025341162030324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014289517081451</v>
+        <v>1.013051628002267</v>
       </c>
       <c r="D19">
-        <v>1.037962358151115</v>
+        <v>1.035921340955957</v>
       </c>
       <c r="E19">
-        <v>1.030275789318825</v>
+        <v>1.029140838595443</v>
       </c>
       <c r="F19">
-        <v>1.042420598838014</v>
+        <v>1.041098388813251</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.057927424176208</v>
+        <v>1.056838288969276</v>
       </c>
       <c r="J19">
-        <v>1.040691806195033</v>
+        <v>1.039498668506809</v>
       </c>
       <c r="K19">
-        <v>1.051095269967929</v>
+        <v>1.049086173506931</v>
       </c>
       <c r="L19">
-        <v>1.043529760096398</v>
+        <v>1.042412880545503</v>
       </c>
       <c r="M19">
-        <v>1.055484340556119</v>
+        <v>1.054182565836783</v>
       </c>
       <c r="N19">
-        <v>1.017369070099679</v>
+        <v>1.017659587675197</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053044693967198</v>
+        <v>1.052015095234127</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047272701799744</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045868157774596</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02528909164646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012643043257905</v>
+        <v>1.011512216345</v>
       </c>
       <c r="D20">
-        <v>1.03668180912425</v>
+        <v>1.034763047962843</v>
       </c>
       <c r="E20">
-        <v>1.02882430963646</v>
+        <v>1.02778706454415</v>
       </c>
       <c r="F20">
-        <v>1.040726527595214</v>
+        <v>1.039495699248464</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057282000524804</v>
+        <v>1.05626687249168</v>
       </c>
       <c r="J20">
-        <v>1.039695148464205</v>
+        <v>1.038606462487894</v>
       </c>
       <c r="K20">
-        <v>1.05010892636032</v>
+        <v>1.048220984604556</v>
       </c>
       <c r="L20">
-        <v>1.042378571398363</v>
+        <v>1.041358297012853</v>
       </c>
       <c r="M20">
-        <v>1.054089154865677</v>
+        <v>1.052877883072406</v>
       </c>
       <c r="N20">
-        <v>1.016983717200881</v>
+        <v>1.017449124793411</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051420503015415</v>
+        <v>1.05046192237269</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046579201376467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045260705908881</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025068307441736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008619057470158</v>
+        <v>1.007742991908423</v>
       </c>
       <c r="D21">
-        <v>1.033913058423973</v>
+        <v>1.032269782757645</v>
       </c>
       <c r="E21">
-        <v>1.025775969104087</v>
+        <v>1.02496396126133</v>
       </c>
       <c r="F21">
-        <v>1.037771405037319</v>
+        <v>1.036752458829642</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.056112884034711</v>
+        <v>1.055268047905346</v>
       </c>
       <c r="J21">
-        <v>1.037760787729771</v>
+        <v>1.036920511427265</v>
       </c>
       <c r="K21">
-        <v>1.04827921367967</v>
+        <v>1.046664541930922</v>
       </c>
       <c r="L21">
-        <v>1.040284927093209</v>
+        <v>1.039487331129569</v>
       </c>
       <c r="M21">
-        <v>1.052070859752597</v>
+        <v>1.051069466021225</v>
       </c>
       <c r="N21">
-        <v>1.016326197396832</v>
+        <v>1.017411766155174</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.049782924457155</v>
+        <v>1.048990398075198</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045288740037182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044163778747015</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024756944699423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006059082611207</v>
+        <v>1.00534297531268</v>
       </c>
       <c r="D22">
-        <v>1.032158896861898</v>
+        <v>1.030688601379409</v>
       </c>
       <c r="E22">
-        <v>1.023852835634585</v>
+        <v>1.023182330450646</v>
       </c>
       <c r="F22">
-        <v>1.035922317203112</v>
+        <v>1.035036488886298</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.055366021629184</v>
+        <v>1.054627769149986</v>
       </c>
       <c r="J22">
-        <v>1.036535620883108</v>
+        <v>1.035850437884563</v>
       </c>
       <c r="K22">
-        <v>1.04711911088055</v>
+        <v>1.045675677841585</v>
       </c>
       <c r="L22">
-        <v>1.038966124143031</v>
+        <v>1.038308117340169</v>
       </c>
       <c r="M22">
-        <v>1.050814224805509</v>
+        <v>1.049944416221292</v>
       </c>
       <c r="N22">
-        <v>1.01591090970521</v>
+        <v>1.017381984747141</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.048788394082057</v>
+        <v>1.04810000638512</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044455198427629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043450004078923</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024558080092828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007411847072907</v>
+        <v>1.006601123353442</v>
       </c>
       <c r="D23">
-        <v>1.033080144782558</v>
+        <v>1.031510874945879</v>
       </c>
       <c r="E23">
-        <v>1.024866764244649</v>
+        <v>1.024112903881862</v>
       </c>
       <c r="F23">
-        <v>1.036897021294519</v>
+        <v>1.035933845812929</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.055757613880648</v>
+        <v>1.054957679453736</v>
       </c>
       <c r="J23">
-        <v>1.03717904178304</v>
+        <v>1.036402321324978</v>
       </c>
       <c r="K23">
-        <v>1.047725258989569</v>
+        <v>1.046183939775277</v>
       </c>
       <c r="L23">
-        <v>1.039659402555581</v>
+        <v>1.038919236871685</v>
       </c>
       <c r="M23">
-        <v>1.051474610029015</v>
+        <v>1.050528413498692</v>
       </c>
       <c r="N23">
-        <v>1.016127766505816</v>
+        <v>1.017353290529612</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.049311038604877</v>
+        <v>1.048562196123622</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044874257805261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043798912166542</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024658011236731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012660232428707</v>
+        <v>1.011530890682662</v>
       </c>
       <c r="D24">
-        <v>1.036672900880356</v>
+        <v>1.034755185156899</v>
       </c>
       <c r="E24">
-        <v>1.028818014237382</v>
+        <v>1.027782312228116</v>
       </c>
       <c r="F24">
-        <v>1.040696486519923</v>
+        <v>1.03946669857334</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057266278244077</v>
+        <v>1.05625191147554</v>
       </c>
       <c r="J24">
-        <v>1.039679498598004</v>
+        <v>1.038592181435837</v>
       </c>
       <c r="K24">
-        <v>1.050085216694822</v>
+        <v>1.048198264915454</v>
       </c>
       <c r="L24">
-        <v>1.04235727235705</v>
+        <v>1.041338494370714</v>
       </c>
       <c r="M24">
-        <v>1.054044728040025</v>
+        <v>1.052834456630357</v>
       </c>
       <c r="N24">
-        <v>1.016972726671722</v>
+        <v>1.01743740116151</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.051345087445532</v>
+        <v>1.050387252290186</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046535420890106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045214949039689</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025057607947889</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01857104887063</v>
+        <v>1.017221772058062</v>
       </c>
       <c r="D25">
-        <v>1.040737991243549</v>
+        <v>1.038529320076648</v>
       </c>
       <c r="E25">
-        <v>1.033296814735267</v>
+        <v>1.032061365786552</v>
       </c>
       <c r="F25">
-        <v>1.045004851145532</v>
+        <v>1.043570378205566</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05892945124027</v>
+        <v>1.057745998734699</v>
       </c>
       <c r="J25">
-        <v>1.042489188688318</v>
+        <v>1.041183137069525</v>
       </c>
       <c r="K25">
-        <v>1.05273518390209</v>
+        <v>1.050557575148932</v>
       </c>
       <c r="L25">
-        <v>1.045399329566552</v>
+        <v>1.044181553221796</v>
       </c>
       <c r="M25">
-        <v>1.056942504447276</v>
+        <v>1.055527979447759</v>
       </c>
       <c r="N25">
-        <v>1.017922376812525</v>
+        <v>1.018083366066827</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.053638445847625</v>
+        <v>1.052518963248761</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04840621191732</v>
+        <v>1.046879933461796</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025529601434458</v>
       </c>
     </row>
   </sheetData>
